--- a/src/excel/FashionsTransactions.xlsx
+++ b/src/excel/FashionsTransactions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Cashback</t>
   </si>
   <si>
-    <t>657feac8b7477894bfc85832</t>
+    <t>657feb53b7477894bfc8585d</t>
   </si>
   <si>
     <t>12/18/2023</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Rp. 352,000</t>
-  </si>
-  <si>
-    <t>657feb53b7477894bfc8585d</t>
   </si>
   <si>
     <t>657febb6b7477894bfc85921</t>
@@ -267,27 +264,6 @@
     <t>Rp. 263,400</t>
   </si>
   <si>
-    <t>65a8b068b8ed380d73306e12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerudung Crincle 
-Gamis Bahan Tile
-Celana Jeans Slim Fit 
-Baju Batik Wanita</t>
-  </si>
-  <si>
-    <t>Rp. -61,500</t>
-  </si>
-  <si>
-    <t>Rp. 451,000</t>
-  </si>
-  <si>
-    <t>Rp. 389,500</t>
-  </si>
-  <si>
-    <t>Rp. 220,300</t>
-  </si>
-  <si>
     <t>65a8b07ab8ed380d733071a3</t>
   </si>
   <si>
@@ -303,10 +279,41 @@
     <t>Rp. 355,700</t>
   </si>
   <si>
+    <t>65b67e9d233219e50b05c1bb</t>
+  </si>
+  <si>
+    <t>1/28/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita
+Baju Gamis Wanita</t>
+  </si>
+  <si>
+    <t>Rp. -246,600</t>
+  </si>
+  <si>
+    <t>Rp. 822,000</t>
+  </si>
+  <si>
+    <t>Rp. 575,400</t>
+  </si>
+  <si>
+    <t>65b6822b233219e50b05d531</t>
+  </si>
+  <si>
+    <t>Baju Gamis Wanita</t>
+  </si>
+  <si>
+    <t>Rp. -135,000</t>
+  </si>
+  <si>
+    <t>Rp. 450,000</t>
+  </si>
+  <si>
+    <t>Rp. 315,000</t>
+  </si>
+  <si>
     <t>65b68288233219e50b05dbd9</t>
-  </si>
-  <si>
-    <t>1/28/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Baju Gamis Wanita - M - Hijau
@@ -337,6 +344,364 @@
   </si>
   <si>
     <t>Rp. 447,300</t>
+  </si>
+  <si>
+    <t>65b6b767233219e50b06440d</t>
+  </si>
+  <si>
+    <t>1/29/2024</t>
+  </si>
+  <si>
+    <t>Baju Gamis Wanita - Hijau - L</t>
+  </si>
+  <si>
+    <t>Rp. -27,600</t>
+  </si>
+  <si>
+    <t>Rp. 92,000</t>
+  </si>
+  <si>
+    <t>Rp. 64,400</t>
+  </si>
+  <si>
+    <t>65b6b805233219e50b065167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita - Kuning - XL
+Baju Gamis Wanita - Hijau - M</t>
+  </si>
+  <si>
+    <t>Rp. -168,000</t>
+  </si>
+  <si>
+    <t>Rp. 392,000</t>
+  </si>
+  <si>
+    <t>65b6b8cf233219e50b065863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita - Kuning - XL
+Baju Gamis Wanita - Hijau - M
+Baju Gamis Wanita - Hijau - XL
+Baju Koko - Putih - XL</t>
+  </si>
+  <si>
+    <t>Rp. -167,700</t>
+  </si>
+  <si>
+    <t>Rp. 658,000</t>
+  </si>
+  <si>
+    <t>Rp. 490,300</t>
+  </si>
+  <si>
+    <t>65b8b33a42389bcdd7ebe28b</t>
+  </si>
+  <si>
+    <t>1/30/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita - Hijau - M
+Baju Gamis Wanita - Hijau - L</t>
+  </si>
+  <si>
+    <t>Rp. -219,000</t>
+  </si>
+  <si>
+    <t>Rp. 730,000</t>
+  </si>
+  <si>
+    <t>Rp. 511,000</t>
+  </si>
+  <si>
+    <t>65b8f3cd42389bcdd7ec2060</t>
+  </si>
+  <si>
+    <t>we - ef - efef</t>
+  </si>
+  <si>
+    <t>Rp. 1,373,736</t>
+  </si>
+  <si>
+    <t>65bf46459552ea69e6f9d27f</t>
+  </si>
+  <si>
+    <t>2/4/2024</t>
+  </si>
+  <si>
+    <t>Kerudung Crincle  - Krem - XL</t>
+  </si>
+  <si>
+    <t>Rp. 25,800</t>
+  </si>
+  <si>
+    <t>Rp. 12,900</t>
+  </si>
+  <si>
+    <t>65bf46629552ea69e6f9d285</t>
+  </si>
+  <si>
+    <t>65bf4847b1277cfe86ab4344</t>
+  </si>
+  <si>
+    <t>Rp. 6,450</t>
+  </si>
+  <si>
+    <t>65bf4caf5d7a073f3e51940c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jilbab Syar'i Casual - Cokkat Tua - Base
+Jilbab Syar'i Casual - Coklat Muda - Base</t>
+  </si>
+  <si>
+    <t>Rp. -34,950</t>
+  </si>
+  <si>
+    <t>Rp. 116,500</t>
+  </si>
+  <si>
+    <t>Rp. 81,550</t>
+  </si>
+  <si>
+    <t>65bf510f393437e8b72c99ab</t>
+  </si>
+  <si>
+    <t>65bf5877f2c3b55d4bc9e10a</t>
+  </si>
+  <si>
+    <t>Rp. -136,200</t>
+  </si>
+  <si>
+    <t>Rp. 454,000</t>
+  </si>
+  <si>
+    <t>Rp. 317,800</t>
+  </si>
+  <si>
+    <t>65bf5897a500fc6d22253724</t>
+  </si>
+  <si>
+    <t>Rp. -273,600</t>
+  </si>
+  <si>
+    <t>Rp. 912,000</t>
+  </si>
+  <si>
+    <t>Rp. 638,400</t>
+  </si>
+  <si>
+    <t>65bf606a875593ae4d3da5d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita - Kuning - XL
+Baju Gamis Wanita - Hijau - L</t>
+  </si>
+  <si>
+    <t>Rp. -56,100</t>
+  </si>
+  <si>
+    <t>Rp. 187,000</t>
+  </si>
+  <si>
+    <t>Rp. 130,900</t>
+  </si>
+  <si>
+    <t>65bf7068acd7ba72c04013f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita - Hijau - M
+Baju Gamis Wanita - Hijau - XL
+Baju Gamis Wanita - Kuning - XL</t>
+  </si>
+  <si>
+    <t>Rp. 562,000</t>
+  </si>
+  <si>
+    <t>65bf971d0c7af4be208adf5d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Gamis Wanita - Hijau - M
+Baju Gamis Wanita - Hijau - L
+Baju Gamis Wanita - Hijau - XL
+Baju Gamis Wanita - Kuning - XL</t>
+  </si>
+  <si>
+    <t>Rp. -617,100</t>
+  </si>
+  <si>
+    <t>Rp. 2,057,000</t>
+  </si>
+  <si>
+    <t>Rp. 1,439,900</t>
+  </si>
+  <si>
+    <t>65bf9798df975ac9fe67b420</t>
+  </si>
+  <si>
+    <t>Rp. -532,500</t>
+  </si>
+  <si>
+    <t>Rp. 1,775,000</t>
+  </si>
+  <si>
+    <t>Rp. 1,242,500</t>
+  </si>
+  <si>
+    <t>65bfbaaa6bc75bbee903b435</t>
+  </si>
+  <si>
+    <t>65bfbb34ba9848b852b3bbf0</t>
+  </si>
+  <si>
+    <t>Rp. 1,030,302</t>
+  </si>
+  <si>
+    <t>65bfbb891ac6b2b44dacd5cb</t>
+  </si>
+  <si>
+    <t>Baju Koko - Putih - XL</t>
+  </si>
+  <si>
+    <t>Rp. 198,000</t>
+  </si>
+  <si>
+    <t>65bfbc1a1ac6b2b44dacd5d1</t>
+  </si>
+  <si>
+    <t>65bfbc897bb864568fbc4663</t>
+  </si>
+  <si>
+    <t>Rp. 297,000</t>
+  </si>
+  <si>
+    <t>65bfbdd545b3e584166bc8b0</t>
+  </si>
+  <si>
+    <t>Rp. 792,000</t>
+  </si>
+  <si>
+    <t>65bfc010c806198180a19525</t>
+  </si>
+  <si>
+    <t>65bfc04cc806198180a19829</t>
+  </si>
+  <si>
+    <t>Rp. 343,434</t>
+  </si>
+  <si>
+    <t>65bfc07ac806198180a19b2f</t>
+  </si>
+  <si>
+    <t>Rp. -58,050</t>
+  </si>
+  <si>
+    <t>Rp. 193,500</t>
+  </si>
+  <si>
+    <t>Rp. 135,450</t>
+  </si>
+  <si>
+    <t>65bfc3abc806198180a1a846</t>
+  </si>
+  <si>
+    <t>2/5/2024</t>
+  </si>
+  <si>
+    <t>Celana Jeans Kulot - Kulot - One Size</t>
+  </si>
+  <si>
+    <t>Rp. -148,500</t>
+  </si>
+  <si>
+    <t>Rp. 495,000</t>
+  </si>
+  <si>
+    <t>Rp. 346,500</t>
+  </si>
+  <si>
+    <t>Rp. 247,500</t>
+  </si>
+  <si>
+    <t>65bfc41ec806198180a1b43e</t>
+  </si>
+  <si>
+    <t>Baju Batik Wanita - Blouse China - XL</t>
+  </si>
+  <si>
+    <t>Rp. 89,700</t>
+  </si>
+  <si>
+    <t>Rp. 44,850</t>
+  </si>
+  <si>
+    <t>65c2d5dca826f7a64d285167</t>
+  </si>
+  <si>
+    <t>2/7/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju Koko - BIRU - XL
+Baju Koko - BIRU - L
+Baju Koko - WHITE - XL</t>
+  </si>
+  <si>
+    <t>Rp. 1,049,700</t>
+  </si>
+  <si>
+    <t>65c7065402e05961ee8aa5a0</t>
+  </si>
+  <si>
+    <t>2/10/2024</t>
+  </si>
+  <si>
+    <t>Rp. 1,029,700</t>
+  </si>
+  <si>
+    <t>65c706cc781f5eda64a17cc5</t>
+  </si>
+  <si>
+    <t>Rp. 729,700</t>
+  </si>
+  <si>
+    <t>65c7fd7b675990a9c73b4095</t>
+  </si>
+  <si>
+    <t>2/11/2024</t>
+  </si>
+  <si>
+    <t>Rp. 349,900</t>
+  </si>
+  <si>
+    <t>65c8005cddcedc4694532045</t>
+  </si>
+  <si>
+    <t>65c8009addcedc4694532335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarung Katun Premium Super - Coklat - Base
+Baju Koko - BIRU - XL
+Baju Koko - BIRU - L</t>
+  </si>
+  <si>
+    <t>Rp. 298,900</t>
+  </si>
+  <si>
+    <t>65cf6cafb77215c5b8221ff0</t>
+  </si>
+  <si>
+    <t>2/16/2024</t>
+  </si>
+  <si>
+    <t>Peci Brokat Muslim - Base - XL</t>
+  </si>
+  <si>
+    <t>Rp. 59,800</t>
+  </si>
+  <si>
+    <t>65cf79deb77215c5b8224d79</t>
+  </si>
+  <si>
+    <t>Gaun Pesta Elegan - Satin Coklat - One SIze</t>
   </si>
 </sst>
 </file>
@@ -722,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I57"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="30" customWidth="1"/>
@@ -800,16 +1165,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
@@ -817,7 +1182,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -829,16 +1194,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
@@ -858,16 +1223,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>14</v>
@@ -887,16 +1252,16 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
@@ -916,16 +1281,16 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -939,22 +1304,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
@@ -962,28 +1327,28 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>14</v>
@@ -991,10 +1356,10 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1003,27 +1368,27 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1032,27 +1397,27 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1061,28 +1426,28 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1090,27 +1455,27 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1119,27 +1484,27 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1148,28 +1513,28 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1177,27 +1542,27 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -1206,114 +1571,114 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -1322,16 +1687,16 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>14</v>
@@ -1339,10 +1704,10 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -1351,18 +1716,1033 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/src/excel/FashionsTransactions.xlsx
+++ b/src/excel/FashionsTransactions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -702,6 +702,25 @@
   </si>
   <si>
     <t>Gaun Pesta Elegan - Satin Coklat - One SIze</t>
+  </si>
+  <si>
+    <t>65d8144d9dcadcc6f33c77bd</t>
+  </si>
+  <si>
+    <t>2/23/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peci Brokat Muslim - Base - L
+Peci Brokat Muslim - Base - XL</t>
+  </si>
+  <si>
+    <t>Rp. 58,900</t>
+  </si>
+  <si>
+    <t>65ddfaa404ada948c61fa88e</t>
+  </si>
+  <si>
+    <t>2/27/2024</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I59"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="30" customWidth="1"/>
@@ -2746,6 +2765,64 @@
         <v>14</v>
       </c>
     </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
